--- a/7质量管理-每次活动前后提交/2QualityAssurance/操作文档/iRace-团队人员绩效考核.xlsx
+++ b/7质量管理-每次活动前后提交/2QualityAssurance/操作文档/iRace-团队人员绩效考核.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FILE\大三下\courses\软件工程综合实践-张红延\iRace-竞赛综合管理平台项目配置管理中心\7质量管理\2QualityAssurance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FILE\大三下\courses\软件工程综合实践-张红延\iRace-竞赛综合管理平台项目配置管理中心\7质量管理-每次活动前后提交\2QualityAssurance\操作文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -111,7 +111,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最后修改时间：2015/04/07</t>
+    <t>最后修改时间：2015/04/09</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +640,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="H5" sqref="H5:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -723,7 +723,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6">
         <f>SUM(D5:D9)</f>
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -733,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -747,7 +747,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -761,7 +761,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -810,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -870,14 +870,14 @@
         <v>0</v>
       </c>
       <c r="D15" s="6">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6">
         <f t="shared" ref="H15" si="0">SUM(D15:D19)</f>
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -947,14 +947,14 @@
         <v>0</v>
       </c>
       <c r="D20" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6">
         <f t="shared" ref="H20" si="1">SUM(D20:D24)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -964,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -992,7 +992,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -1031,7 +1031,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6">
         <f t="shared" ref="H25" si="2">SUM(D25:D29)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -1041,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -1069,7 +1069,7 @@
         <v>7</v>
       </c>
       <c r="D28" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>

--- a/7质量管理-每次活动前后提交/2QualityAssurance/操作文档/iRace-团队人员绩效考核.xlsx
+++ b/7质量管理-每次活动前后提交/2QualityAssurance/操作文档/iRace-团队人员绩效考核.xlsx
@@ -309,28 +309,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -652,26 +652,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
@@ -695,413 +695,419 @@
       <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="12">
         <v>0</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12">
         <f>SUM(D5:D9)</f>
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="D6" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="12">
         <v>1</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="6">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="D8" s="12">
+        <v>9</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="12">
         <v>2</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="12">
         <v>1</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12">
         <f>SUM(D10:D14)</f>
-        <v>16.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="6">
-        <v>4</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="D11" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="12">
         <v>1.5</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="6">
-        <v>8</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="D13" s="12">
+        <v>9</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="12">
         <v>2</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="12">
         <v>1.5</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12">
         <f t="shared" ref="H15" si="0">SUM(D15:D19)</f>
-        <v>16.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="6">
-        <v>4</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="D16" s="12">
+        <v>5</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="12">
         <v>1</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="6">
-        <v>8</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="D18" s="12">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="12">
         <v>2</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="12">
         <v>2</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12">
         <f t="shared" ref="H20" si="1">SUM(D20:D24)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="6">
-        <v>4</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="D21" s="12">
+        <v>5</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="12">
         <v>1</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="6">
-        <v>8</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="D23" s="12">
+        <v>9</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="12">
         <v>2</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="12">
         <v>0</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12">
         <f t="shared" ref="H25" si="2">SUM(D25:D29)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="6">
-        <v>4</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="D26" s="12">
+        <v>5</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="12">
         <v>1</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="6">
-        <v>10</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="D28" s="12">
+        <v>11</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="12">
         <v>2</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="H10:H14"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
     <mergeCell ref="H25:H29"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D5:G5"/>
@@ -1118,22 +1124,16 @@
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
